--- a/SpiderIRValueVsDistance.xlsx
+++ b/SpiderIRValueVsDistance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mydocs.uark.edu\mydocs\dpaschal\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpaschal\Desktop\final\Embedded-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Distance (cm)</t>
   </si>
@@ -99,6 +99,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Value vs Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -309,6 +334,450 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B37-49E0-8475-847E2D8CD049}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1676637727"/>
+        <c:axId val="1676638143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1676637727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1676638143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1676638143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1676637727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distance vs Value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:forward val="5"/>
+            <c:backward val="5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7064541152374478E-2"/>
+                  <c:y val="-0.71085828343313373"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CDB-4CD2-86F3-F74889DBCFB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -532,7 +1001,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1058,10 +2083,10 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1075,6 +2100,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1346,18 +2403,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D14"/>
+  <dimension ref="C2:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>3100</v>
       </c>
@@ -1373,7 +2430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2300</v>
       </c>
@@ -1381,7 +2438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1630</v>
       </c>
@@ -1389,15 +2446,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1270</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
+      <c r="T6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1090</v>
       </c>
@@ -1405,7 +2465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>910</v>
       </c>
@@ -1413,7 +2473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>815</v>
       </c>
@@ -1421,7 +2481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>780</v>
       </c>
@@ -1429,7 +2489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>725</v>
       </c>
@@ -1437,7 +2497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>650</v>
       </c>
@@ -1445,7 +2505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>630</v>
       </c>
@@ -1453,12 +2513,116 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>560</v>
       </c>
       <c r="D14">
         <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
